--- a/results/ResNet18/CIFAR10/low-rank_quant-qat_pruning_quant-static/0_low-rank_metrics.xlsx
+++ b/results/ResNet18/CIFAR10/low-rank_quant-qat_pruning_quant-static/0_low-rank_metrics.xlsx
@@ -506,13 +506,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.76</v>
+        <v>0.761</v>
       </c>
       <c r="C4" t="n">
-        <v>0.699</v>
+        <v>0.66</v>
       </c>
       <c r="D4" t="n">
-        <v>-8.029999999999999</v>
+        <v>-13.27</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.759</v>
+        <v>0.76</v>
       </c>
       <c r="C5" t="n">
-        <v>0.699</v>
+        <v>0.661</v>
       </c>
       <c r="D5" t="n">
-        <v>-7.91</v>
+        <v>-13.03</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.759</v>
+        <v>0.76</v>
       </c>
       <c r="C6" t="n">
-        <v>0.702</v>
+        <v>0.668</v>
       </c>
       <c r="D6" t="n">
-        <v>-7.51</v>
+        <v>-12.11</v>
       </c>
     </row>
   </sheetData>
@@ -633,22 +633,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.289031688502291</v>
+        <v>1.258168907137588</v>
       </c>
       <c r="C4" t="n">
-        <v>2.257780719781294</v>
+        <v>1.961072032689117</v>
       </c>
       <c r="D4" t="n">
-        <v>75.15000000000001</v>
+        <v>55.87</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4364450467255952</v>
+        <v>0.0481791617195392</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1230109372172621</v>
+        <v>0.06011212796299971</v>
       </c>
       <c r="G4" t="n">
-        <v>-71.81999999999999</v>
+        <v>24.77</v>
       </c>
     </row>
     <row r="5">
@@ -661,10 +661,10 @@
         <v>42.655</v>
       </c>
       <c r="C5" t="n">
-        <v>43.378</v>
+        <v>42.903</v>
       </c>
       <c r="D5" t="n">
-        <v>1.69</v>
+        <v>0.58</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.73988630578033</v>
+        <v>25.56010685313822</v>
       </c>
       <c r="C6" t="n">
-        <v>14.23057539872894</v>
+        <v>16.58014681026133</v>
       </c>
       <c r="D6" t="n">
-        <v>-34.54</v>
+        <v>-35.13</v>
       </c>
       <c r="E6" t="n">
-        <v>1.641233212049668</v>
+        <v>1.113175937322414</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9711847928629892</v>
+        <v>0.443540204238878</v>
       </c>
       <c r="G6" t="n">
-        <v>-40.83</v>
+        <v>-60.16</v>
       </c>
     </row>
   </sheetData>

--- a/results/ResNet18/CIFAR10/low-rank_quant-qat_pruning_quant-static/0_low-rank_metrics.xlsx
+++ b/results/ResNet18/CIFAR10/low-rank_quant-qat_pruning_quant-static/0_low-rank_metrics.xlsx
@@ -84,11 +84,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -467,8 +469,8 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -483,7 +485,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -574,13 +576,13 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
       <c r="E1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -595,7 +597,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -610,7 +612,7 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -672,7 +674,6 @@
       <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
